--- a/data/설비 가동율_import.xlsx
+++ b/data/설비 가동율_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="11550" tabRatio="624" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="2280" windowHeight="0" tabRatio="624"/>
   </bookViews>
   <sheets>
     <sheet name="젯팅 장비" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
   <si>
     <t>Inline</t>
   </si>
@@ -508,6 +508,21 @@
   <si>
     <t>가동율
 (85%)</t>
+  </si>
+  <si>
+    <t>01.08</t>
+  </si>
+  <si>
+    <t>02.08</t>
+  </si>
+  <si>
+    <t>03.08</t>
+  </si>
+  <si>
+    <t>04.08</t>
+  </si>
+  <si>
+    <t>05.08</t>
   </si>
 </sst>
 </file>
@@ -783,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +929,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,24 +968,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,6 +988,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1266,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1280,18 +1304,19 @@
     <col min="4" max="4" width="9.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="6"/>
-    <col min="18" max="18" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="36" width="10" style="44" customWidth="1"/>
+    <col min="37" max="37" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12" style="6" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.28515625" style="6" customWidth="1"/>
+    <col min="42" max="42" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="9.140625" style="6"/>
+    <col min="48" max="48" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24" customHeight="1">
+    <row r="1" spans="1:54" ht="24" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
@@ -1306,12 +1331,42 @@
       <c r="F1" s="32">
         <v>0.99</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" ht="24" customHeight="1">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+    </row>
+    <row r="2" spans="1:54" ht="24" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1324,62 +1379,132 @@
       <c r="F2" s="16">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+    </row>
+    <row r="3" spans="1:54" ht="24" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="50" t="s">
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50" t="s">
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52"/>
-    </row>
-    <row r="4" spans="1:24" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
+    </row>
+    <row r="4" spans="1:54" ht="36" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1536,7 @@
         <v>131</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>15</v>
@@ -1429,13 +1554,103 @@
         <v>131</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="17" customFormat="1">
+      <c r="Y4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="17" customFormat="1">
       <c r="A5" s="35" t="s">
         <v>65</v>
       </c>
@@ -1487,11 +1702,11 @@
       <c r="P5" s="23">
         <v>14567</v>
       </c>
-      <c r="Q5" s="22">
-        <f t="shared" ref="Q5:Q10" si="0">(P5/O5)*0.85</f>
+      <c r="Q5" s="37">
+        <f>(P5/O5)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S5" s="16" t="s">
@@ -1507,15 +1722,115 @@
       <c r="V5" s="23">
         <v>14567</v>
       </c>
-      <c r="W5" s="22">
-        <f t="shared" ref="W5:W10" si="1">(V5/U5)*0.85</f>
+      <c r="W5" s="37">
+        <f>(V5/U5)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA5" s="15">
+        <f>3600/Z5*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC5" s="37">
+        <f>(AB5/AA5)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG5" s="15">
+        <f>3600/AF5*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI5" s="37">
+        <f>(AH5/AG5)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM5" s="15">
+        <f>3600/AL5*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN5" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO5" s="37">
+        <f>(AN5/AM5)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS5" s="15">
+        <f>3600/AR5*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU5" s="22">
+        <f t="shared" ref="AU5:AU10" si="0">(AT5/AS5)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY5" s="15">
+        <f>3600/AX5*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ5" s="23">
+        <v>14567</v>
+      </c>
+      <c r="BA5" s="22">
+        <f t="shared" ref="BA5:BA10" si="1">(AZ5/AY5)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="BB5" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54">
       <c r="A6" s="35" t="s">
         <v>66</v>
       </c>
@@ -1563,35 +1878,135 @@
       <c r="P6" s="23">
         <v>14567</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="37">
+        <f t="shared" ref="Q6:Q10" si="5">(P6/O6)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" ref="U6:U10" si="6">3600/T6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="V6" s="23">
+        <v>14567</v>
+      </c>
+      <c r="W6" s="37">
+        <f t="shared" ref="W6:W10" si="7">(V6/U6)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA6" s="15">
+        <f t="shared" ref="AA6:AA10" si="8">3600/Z6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC6" s="37">
+        <f t="shared" ref="AC6:AC10" si="9">(AB6/AA6)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG6" s="15">
+        <f t="shared" ref="AG6:AG10" si="10">3600/AF6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH6" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI6" s="37">
+        <f t="shared" ref="AI6:AI10" si="11">(AH6/AG6)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM6" s="15">
+        <f t="shared" ref="AM6:AM10" si="12">3600/AL6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO6" s="37">
+        <f t="shared" ref="AO6:AO10" si="13">(AN6/AM6)*0.85</f>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS6" s="15">
+        <f t="shared" ref="AS6:AS10" si="14">3600/AR6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU6" s="22">
         <f t="shared" si="0"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="AV6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="AW6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="U6" s="15">
-        <f t="shared" ref="U6:U10" si="5">3600/T6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="V6" s="23">
+      <c r="AX6" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY6" s="15">
+        <f t="shared" ref="AY6:AY10" si="15">3600/AX6*$E$2*$F$1</f>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ6" s="23">
         <v>14567</v>
       </c>
-      <c r="W6" s="22">
+      <c r="BA6" s="22">
         <f t="shared" si="1"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="BB6" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="63">
+    <row r="7" spans="1:54" ht="63">
       <c r="A7" s="35" t="s">
         <v>67</v>
       </c>
@@ -1639,35 +2054,135 @@
       <c r="P7" s="23">
         <v>14567</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="37">
+        <f t="shared" si="5"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="6"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="V7" s="23">
+        <v>14567</v>
+      </c>
+      <c r="W7" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="8"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC7" s="37">
+        <f t="shared" si="9"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG7" s="15">
+        <f t="shared" si="10"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH7" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI7" s="37">
+        <f t="shared" si="11"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM7" s="15">
+        <f t="shared" si="12"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN7" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO7" s="37">
+        <f t="shared" si="13"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS7" s="15">
+        <f t="shared" si="14"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT7" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU7" s="22">
         <f t="shared" si="0"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="AV7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="AW7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="U7" s="15">
-        <f t="shared" si="5"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="V7" s="23">
+      <c r="AX7" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY7" s="15">
+        <f t="shared" si="15"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ7" s="23">
         <v>14567</v>
       </c>
-      <c r="W7" s="22">
+      <c r="BA7" s="22">
         <f t="shared" si="1"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="BB7" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:54">
       <c r="A8" s="35" t="s">
         <v>68</v>
       </c>
@@ -1715,35 +2230,135 @@
       <c r="P8" s="23">
         <v>14567</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="37">
+        <f t="shared" si="5"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="6"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="V8" s="23">
+        <v>14567</v>
+      </c>
+      <c r="W8" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="8"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC8" s="37">
+        <f t="shared" si="9"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG8" s="15">
+        <f t="shared" si="10"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH8" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI8" s="37">
+        <f t="shared" si="11"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM8" s="15">
+        <f t="shared" si="12"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN8" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO8" s="37">
+        <f t="shared" si="13"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS8" s="15">
+        <f t="shared" si="14"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT8" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU8" s="22">
         <f t="shared" si="0"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="AV8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="AW8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="5"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="V8" s="23">
+      <c r="AX8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY8" s="15">
+        <f t="shared" si="15"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ8" s="23">
         <v>14567</v>
       </c>
-      <c r="W8" s="22">
+      <c r="BA8" s="22">
         <f t="shared" si="1"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="BB8" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="17" customFormat="1">
+    <row r="9" spans="1:54" s="17" customFormat="1">
       <c r="A9" s="35" t="s">
         <v>69</v>
       </c>
@@ -1783,31 +2398,121 @@
       <c r="P9" s="23">
         <v>14567</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="37">
+        <f t="shared" si="5"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="6"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="V9" s="23">
+        <v>14567</v>
+      </c>
+      <c r="W9" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="8"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC9" s="37">
+        <f t="shared" si="9"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG9" s="15">
+        <f t="shared" si="10"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH9" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI9" s="37">
+        <f t="shared" si="11"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM9" s="15">
+        <f t="shared" si="12"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN9" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO9" s="37">
+        <f t="shared" si="13"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS9" s="15">
+        <f t="shared" si="14"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT9" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU9" s="22">
         <f t="shared" si="0"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="16" t="s">
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="U9" s="15">
-        <f t="shared" si="5"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="V9" s="23">
+      <c r="AX9" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY9" s="15">
+        <f t="shared" si="15"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ9" s="23">
         <v>14567</v>
       </c>
-      <c r="W9" s="22">
+      <c r="BA9" s="22">
         <f t="shared" si="1"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X9" s="24"/>
-    </row>
-    <row r="10" spans="1:24" s="17" customFormat="1">
+      <c r="BB9" s="24"/>
+    </row>
+    <row r="10" spans="1:54" s="17" customFormat="1">
       <c r="A10" s="35" t="s">
         <v>70</v>
       </c>
@@ -1845,128 +2550,493 @@
       <c r="P10" s="23">
         <v>14567</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="37">
+        <f t="shared" si="5"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="6"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="V10" s="23">
+        <v>14567</v>
+      </c>
+      <c r="W10" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="8"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AC10" s="37">
+        <f t="shared" si="9"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AD10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AG10" s="15">
+        <f t="shared" si="10"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AH10" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AI10" s="37">
+        <f t="shared" si="11"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AJ10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AM10" s="15">
+        <f t="shared" si="12"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AN10" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AO10" s="37">
+        <f t="shared" si="13"/>
+        <v>0.59060928731762063</v>
+      </c>
+      <c r="AP10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AS10" s="15">
+        <f t="shared" si="14"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AT10" s="23">
+        <v>14567</v>
+      </c>
+      <c r="AU10" s="22">
         <f t="shared" si="0"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="AV10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="U10" s="15">
-        <f t="shared" si="5"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="V10" s="23">
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="AY10" s="15">
+        <f t="shared" si="15"/>
+        <v>20964.705882352941</v>
+      </c>
+      <c r="AZ10" s="23">
         <v>14567</v>
       </c>
-      <c r="W10" s="22">
+      <c r="BA10" s="22">
         <f t="shared" si="1"/>
         <v>0.59060928731762063</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="BB10" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:54">
       <c r="A11" s="36"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="36"/>
+    </row>
+    <row r="13" spans="1:54">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+    </row>
+    <row r="14" spans="1:54">
       <c r="A14" s="39"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+    </row>
+    <row r="15" spans="1:54">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+    </row>
+    <row r="16" spans="1:54">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+    </row>
+    <row r="17" spans="1:50">
       <c r="A17" s="7"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+    </row>
+    <row r="18" spans="1:50">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:50">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+    </row>
+    <row r="20" spans="1:50">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="T20" s="42"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AX20" s="42"/>
+    </row>
+    <row r="21" spans="1:50">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="15">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="AK3:AP3"/>
+    <mergeCell ref="AQ3:AV3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3" numberStoredAsText="1"/>
+    <ignoredError sqref="AK3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1976,7 +3046,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2035,41 +3105,41 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="60"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2318,76 +3388,76 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2411,7 +3481,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K10"/>
+      <selection activeCell="G3" sqref="G3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2470,40 +3540,40 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="62"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +3920,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2909,40 +3979,40 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +4282,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -3257,40 +4327,40 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3332,14 +4402,14 @@
         <v>3.4</v>
       </c>
       <c r="I5" s="15">
-        <f>3600/H5*$E$2*$E$1</f>
+        <f t="shared" ref="I5:I10" si="0">3600/H5*$E$2*$E$1</f>
         <v>21176.470588235294</v>
       </c>
       <c r="J5" s="23">
         <v>17283</v>
       </c>
       <c r="K5" s="22">
-        <f t="shared" ref="K5:K10" si="0">(J5/I5)*0.85</f>
+        <f t="shared" ref="K5:K10" si="1">(J5/I5)*0.85</f>
         <v>0.69372041666666662</v>
       </c>
       <c r="L5" s="24" t="s">
@@ -3366,14 +4436,14 @@
         <v>3.4</v>
       </c>
       <c r="I6" s="15">
-        <f>3600/H6*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J6" s="23">
         <v>17283</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69372041666666662</v>
       </c>
       <c r="L6" s="24" t="s">
@@ -3400,14 +4470,14 @@
         <v>3.4</v>
       </c>
       <c r="I7" s="15">
-        <f>3600/H7*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J7" s="23">
         <v>17283</v>
       </c>
       <c r="K7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69372041666666662</v>
       </c>
       <c r="L7" s="24" t="s">
@@ -3434,14 +4504,14 @@
         <v>3.4</v>
       </c>
       <c r="I8" s="15">
-        <f>3600/H8*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J8" s="23">
         <v>17283</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69372041666666662</v>
       </c>
       <c r="L8" s="24" t="s">
@@ -3468,14 +4538,14 @@
         <v>3.4</v>
       </c>
       <c r="I9" s="15">
-        <f>3600/H9*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J9" s="23">
         <v>17283</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69372041666666662</v>
       </c>
       <c r="L9" s="24"/>
@@ -3498,14 +4568,14 @@
         <v>3.4</v>
       </c>
       <c r="I10" s="15">
-        <f>3600/H10*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J10" s="23">
         <v>17283</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69372041666666662</v>
       </c>
       <c r="L10" s="24" t="s">
@@ -3602,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -3650,40 +4720,40 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3725,14 +4795,14 @@
         <v>3.4</v>
       </c>
       <c r="I5" s="15">
-        <f>3600/H5*$E$2*$E$1</f>
+        <f t="shared" ref="I5:I10" si="0">3600/H5*$E$2*$E$1</f>
         <v>21176.470588235294</v>
       </c>
       <c r="J5" s="23">
         <v>19824</v>
       </c>
       <c r="K5" s="22">
-        <f t="shared" ref="K5:K10" si="0">(J5/I5)*0.85</f>
+        <f t="shared" ref="K5:K10" si="1">(J5/I5)*0.85</f>
         <v>0.79571333333333338</v>
       </c>
       <c r="L5" s="24" t="s">
@@ -3759,14 +4829,14 @@
         <v>3.4</v>
       </c>
       <c r="I6" s="15">
-        <f>3600/H6*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J6" s="23">
         <v>19824</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79571333333333338</v>
       </c>
       <c r="L6" s="24" t="s">
@@ -3793,14 +4863,14 @@
         <v>3.4</v>
       </c>
       <c r="I7" s="15">
-        <f>3600/H7*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J7" s="23">
         <v>19824</v>
       </c>
       <c r="K7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79571333333333338</v>
       </c>
       <c r="L7" s="24" t="s">
@@ -3827,14 +4897,14 @@
         <v>3.4</v>
       </c>
       <c r="I8" s="15">
-        <f>3600/H8*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J8" s="23">
         <v>19824</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79571333333333338</v>
       </c>
       <c r="L8" s="24" t="s">
@@ -3861,14 +4931,14 @@
         <v>3.4</v>
       </c>
       <c r="I9" s="15">
-        <f>3600/H9*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J9" s="23">
         <v>19824</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79571333333333338</v>
       </c>
       <c r="L9" s="24"/>
@@ -3891,14 +4961,14 @@
         <v>3.4</v>
       </c>
       <c r="I10" s="15">
-        <f>3600/H10*$E$2*$E$1</f>
+        <f t="shared" si="0"/>
         <v>21176.470588235294</v>
       </c>
       <c r="J10" s="23">
         <v>19824</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79571333333333338</v>
       </c>
       <c r="L10" s="24" t="s">

--- a/data/설비 가동율_import.xlsx
+++ b/data/설비 가동율_import.xlsx
@@ -932,6 +932,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,24 +974,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,12 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1304,7 +1304,9 @@
     <col min="4" max="4" width="9.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" customWidth="1"/>
-    <col min="7" max="36" width="10" style="44" customWidth="1"/>
+    <col min="7" max="20" width="10" style="44" customWidth="1"/>
+    <col min="21" max="21" width="26" style="44" customWidth="1"/>
+    <col min="22" max="36" width="10" style="44" customWidth="1"/>
     <col min="37" max="37" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" style="6" customWidth="1"/>
@@ -1331,36 +1333,36 @@
       <c r="F1" s="32">
         <v>0.99</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
@@ -1379,132 +1381,132 @@
       <c r="F2" s="16">
         <v>16</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
     </row>
     <row r="3" spans="1:54" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="45" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="45" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="45" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="45" t="s">
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="47"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="55"/>
     </row>
     <row r="4" spans="1:54" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1892,14 +1894,14 @@
         <v>3.4</v>
       </c>
       <c r="U6" s="15">
-        <f t="shared" ref="U6:U10" si="6">3600/T6*$E$2*$F$1</f>
+        <f>3600/T6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="V6" s="23">
         <v>14567</v>
       </c>
       <c r="W6" s="37">
-        <f t="shared" ref="W6:W10" si="7">(V6/U6)*0.85</f>
+        <f t="shared" ref="W6:W10" si="6">(V6/U6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="X6" s="37" t="s">
@@ -1912,14 +1914,14 @@
         <v>3.4</v>
       </c>
       <c r="AA6" s="15">
-        <f t="shared" ref="AA6:AA10" si="8">3600/Z6*$E$2*$F$1</f>
+        <f t="shared" ref="AA6:AA10" si="7">3600/Z6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AB6" s="23">
         <v>14567</v>
       </c>
       <c r="AC6" s="37">
-        <f t="shared" ref="AC6:AC10" si="9">(AB6/AA6)*0.85</f>
+        <f t="shared" ref="AC6:AC10" si="8">(AB6/AA6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="AD6" s="37" t="s">
@@ -1932,14 +1934,14 @@
         <v>3.4</v>
       </c>
       <c r="AG6" s="15">
-        <f t="shared" ref="AG6:AG10" si="10">3600/AF6*$E$2*$F$1</f>
+        <f t="shared" ref="AG6:AG10" si="9">3600/AF6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AH6" s="23">
         <v>14567</v>
       </c>
       <c r="AI6" s="37">
-        <f t="shared" ref="AI6:AI10" si="11">(AH6/AG6)*0.85</f>
+        <f t="shared" ref="AI6:AI10" si="10">(AH6/AG6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="AJ6" s="37" t="s">
@@ -1952,14 +1954,14 @@
         <v>3.4</v>
       </c>
       <c r="AM6" s="15">
-        <f t="shared" ref="AM6:AM10" si="12">3600/AL6*$E$2*$F$1</f>
+        <f t="shared" ref="AM6:AM10" si="11">3600/AL6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AN6" s="23">
         <v>14567</v>
       </c>
       <c r="AO6" s="37">
-        <f t="shared" ref="AO6:AO10" si="13">(AN6/AM6)*0.85</f>
+        <f t="shared" ref="AO6:AO10" si="12">(AN6/AM6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="AP6" s="37" t="s">
@@ -1972,7 +1974,7 @@
         <v>3.4</v>
       </c>
       <c r="AS6" s="15">
-        <f t="shared" ref="AS6:AS10" si="14">3600/AR6*$E$2*$F$1</f>
+        <f t="shared" ref="AS6:AS10" si="13">3600/AR6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AT6" s="23">
@@ -1992,7 +1994,7 @@
         <v>3.4</v>
       </c>
       <c r="AY6" s="15">
-        <f t="shared" ref="AY6:AY10" si="15">3600/AX6*$E$2*$F$1</f>
+        <f t="shared" ref="AY6:AY10" si="14">3600/AX6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ6" s="23">
@@ -2048,7 +2050,7 @@
         <v>3.4</v>
       </c>
       <c r="O7" s="15">
-        <f t="shared" si="4"/>
+        <f>3600/N7*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="P7" s="23">
@@ -2068,14 +2070,14 @@
         <v>3.4</v>
       </c>
       <c r="U7" s="15">
-        <f t="shared" si="6"/>
+        <f>3600/T7*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="V7" s="23">
         <v>14567</v>
       </c>
       <c r="W7" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="X7" s="37" t="s">
@@ -2088,14 +2090,14 @@
         <v>3.4</v>
       </c>
       <c r="AA7" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB7" s="23">
         <v>14567</v>
       </c>
       <c r="AC7" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AD7" s="37" t="s">
@@ -2108,14 +2110,14 @@
         <v>3.4</v>
       </c>
       <c r="AG7" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH7" s="23">
         <v>14567</v>
       </c>
       <c r="AI7" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AJ7" s="37" t="s">
@@ -2128,14 +2130,14 @@
         <v>3.4</v>
       </c>
       <c r="AM7" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN7" s="23">
         <v>14567</v>
       </c>
       <c r="AO7" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AP7" s="37" t="s">
@@ -2148,7 +2150,7 @@
         <v>3.4</v>
       </c>
       <c r="AS7" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT7" s="23">
@@ -2168,7 +2170,7 @@
         <v>3.4</v>
       </c>
       <c r="AY7" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ7" s="23">
@@ -2244,14 +2246,14 @@
         <v>3.4</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U6:U10" si="15">3600/T8*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="V8" s="23">
         <v>14567</v>
       </c>
       <c r="W8" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="X8" s="37" t="s">
@@ -2264,14 +2266,14 @@
         <v>3.4</v>
       </c>
       <c r="AA8" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB8" s="23">
         <v>14567</v>
       </c>
       <c r="AC8" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AD8" s="37" t="s">
@@ -2284,14 +2286,14 @@
         <v>3.4</v>
       </c>
       <c r="AG8" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH8" s="23">
         <v>14567</v>
       </c>
       <c r="AI8" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AJ8" s="37" t="s">
@@ -2304,14 +2306,14 @@
         <v>3.4</v>
       </c>
       <c r="AM8" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN8" s="23">
         <v>14567</v>
       </c>
       <c r="AO8" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AP8" s="37" t="s">
@@ -2324,7 +2326,7 @@
         <v>3.4</v>
       </c>
       <c r="AS8" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT8" s="23">
@@ -2344,7 +2346,7 @@
         <v>3.4</v>
       </c>
       <c r="AY8" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ8" s="23">
@@ -2410,14 +2412,14 @@
         <v>3.4</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="V9" s="23">
         <v>14567</v>
       </c>
       <c r="W9" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="X9" s="37"/>
@@ -2428,14 +2430,14 @@
         <v>3.4</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB9" s="23">
         <v>14567</v>
       </c>
       <c r="AC9" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AD9" s="37"/>
@@ -2446,14 +2448,14 @@
         <v>3.4</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH9" s="23">
         <v>14567</v>
       </c>
       <c r="AI9" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AJ9" s="37"/>
@@ -2464,14 +2466,14 @@
         <v>3.4</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN9" s="23">
         <v>14567</v>
       </c>
       <c r="AO9" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AP9" s="37"/>
@@ -2482,7 +2484,7 @@
         <v>3.4</v>
       </c>
       <c r="AS9" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT9" s="23">
@@ -2500,7 +2502,7 @@
         <v>3.4</v>
       </c>
       <c r="AY9" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ9" s="23">
@@ -2562,14 +2564,14 @@
         <v>3.4</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="V10" s="23">
         <v>14567</v>
       </c>
       <c r="W10" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="X10" s="37" t="s">
@@ -2580,14 +2582,14 @@
         <v>3.4</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB10" s="23">
         <v>14567</v>
       </c>
       <c r="AC10" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AD10" s="37" t="s">
@@ -2598,14 +2600,14 @@
         <v>3.4</v>
       </c>
       <c r="AG10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH10" s="23">
         <v>14567</v>
       </c>
       <c r="AI10" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AJ10" s="37" t="s">
@@ -2616,14 +2618,14 @@
         <v>3.4</v>
       </c>
       <c r="AM10" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN10" s="23">
         <v>14567</v>
       </c>
       <c r="AO10" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="AP10" s="37" t="s">
@@ -2634,7 +2636,7 @@
         <v>3.4</v>
       </c>
       <c r="AS10" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT10" s="23">
@@ -2652,7 +2654,7 @@
         <v>3.4</v>
       </c>
       <c r="AY10" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ10" s="23">
@@ -2825,9 +2827,9 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="7"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -3016,11 +3018,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="AW3:BB3"/>
     <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="AQ3:AV3"/>
@@ -3031,6 +3028,11 @@
     <mergeCell ref="S3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3105,41 +3107,41 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3388,76 +3390,76 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3540,40 +3542,40 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="63"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3979,40 +3981,40 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4327,40 +4329,40 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4720,40 +4722,40 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
